--- a/medicine/Maladies infectieuses/Liste_d'épidémies/Liste_d'épidémies.xlsx
+++ b/medicine/Maladies infectieuses/Liste_d'épidémies/Liste_d'épidémies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9pid%C3%A9mies</t>
+          <t>Liste_d'épidémies</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article est une liste des plus grandes épidémies et pandémies connues dans le monde causées par une maladie infectieuse. Les maladies non transmissibles répandues telles que les maladies cardiovasculaires et le cancer ne sont pas incluses.
 Cependant les principales épidémies de tuberculose ne sont actuellement pas incluses dans les listes suivantes en raison du manque de sources les décrivant (durées, nombres de décès...).
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9pid%C3%A9mies</t>
+          <t>Liste_d'épidémies</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,6 +528,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9pid%C3%A9mies</t>
+          <t>Liste_d'épidémies</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,6 +556,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -549,7 +565,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9pid%C3%A9mies</t>
+          <t>Liste_d'épidémies</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -568,6 +584,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -575,7 +593,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9pid%C3%A9mies</t>
+          <t>Liste_d'épidémies</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -594,6 +612,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -601,7 +621,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9pid%C3%A9mies</t>
+          <t>Liste_d'épidémies</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -620,6 +640,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -627,7 +649,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9pid%C3%A9mies</t>
+          <t>Liste_d'épidémies</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -646,6 +668,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -653,7 +677,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9pid%C3%A9mies</t>
+          <t>Liste_d'épidémies</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -672,6 +696,8 @@
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -679,7 +705,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9pid%C3%A9mies</t>
+          <t>Liste_d'épidémies</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -697,7 +723,9 @@
           <t>Catégorie connexe</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Liste des épidémies de peste
 Liste d'épidémies liées au virus Ebola
